--- a/pa/pa5/PA5-Group01/Test-cases.xlsx
+++ b/pa/pa5/PA5-Group01/Test-cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam_3\NMCNPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3_NM CNPM\Job_Hiring_Lab\docs\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA1738D-A97D-470B-B9BD-5F818DE91C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01340990-6A88-4578-A286-A10107557FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -40,14 +40,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="209">
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -57,7 +57,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -70,7 +70,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -80,7 +80,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,7 +231,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -242,7 +242,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -302,7 +302,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -313,7 +313,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -345,7 +345,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -356,7 +356,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -391,7 +391,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -402,7 +402,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -427,7 +427,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -438,7 +438,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -466,7 +466,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -477,7 +477,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -498,7 +498,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -509,7 +509,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -541,7 +541,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -552,7 +552,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -584,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -595,7 +595,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -635,7 +635,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -647,7 +647,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -659,7 +659,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -670,7 +670,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -698,7 +698,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -710,7 +710,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -722,7 +722,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -733,7 +733,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -757,7 +757,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -769,7 +769,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -781,7 +781,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -792,7 +792,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -819,7 +819,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -831,7 +831,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -843,7 +843,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -854,7 +854,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -880,7 +880,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -892,7 +892,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -904,7 +904,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -915,7 +915,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -947,7 +947,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -959,7 +959,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -971,7 +971,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -982,7 +982,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1013,7 +1013,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1025,7 +1025,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1037,7 +1037,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1048,7 +1048,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1079,7 +1079,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1091,7 +1091,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1103,7 +1103,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1194,7 +1194,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1206,7 +1206,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1218,7 +1218,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1229,7 +1229,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1263,7 +1263,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1275,7 +1275,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1287,7 +1287,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1298,7 +1298,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1326,7 +1326,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1337,7 +1337,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1349,7 +1349,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1360,7 +1360,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1373,7 +1373,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1384,7 +1384,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1422,7 +1422,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1433,7 +1433,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1445,7 +1445,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1456,7 +1456,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1469,7 +1469,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1480,7 +1480,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1491,7 +1491,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1518,7 +1518,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1529,7 +1529,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1541,7 +1541,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1552,7 +1552,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1565,7 +1565,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1576,7 +1576,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1587,7 +1587,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1598,7 +1598,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1631,7 +1631,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1642,7 +1642,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1654,7 +1654,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1665,7 +1665,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1678,7 +1678,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1689,7 +1689,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1700,7 +1700,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1711,7 +1711,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1726,7 +1726,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1737,7 +1737,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1768,7 +1768,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1779,7 +1779,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1791,7 +1791,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1802,7 +1802,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1815,7 +1815,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1826,7 +1826,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1837,7 +1837,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1848,7 +1848,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1863,7 +1863,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1874,7 +1874,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1913,7 +1913,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1924,7 +1924,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1946,7 +1946,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1957,7 +1957,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1997,7 +1997,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2008,7 +2008,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2030,7 +2030,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2041,7 +2041,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2081,7 +2081,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2092,7 +2092,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2114,7 +2114,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2125,7 +2125,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2178,124 +2178,10 @@
     <t>Function 06: Tìm kiếm, lọc tin tuyển dụng</t>
   </si>
   <si>
-    <t xml:space="preserve">Tìm kiếm theo từ khoá, địa chỉ </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Phải kết nối với Internet </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1. Ở trang chủ, nhập từ khoá mong muốn vào thanh tìm kiếm việc làm
-2. Chọn địa chỉ cần tìm
-3. Chọn "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF305496"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Tìm kiếm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Từ khoá: "Front-end"
-2. Địa chỉ : "Hà Nội"</t>
-  </si>
-  <si>
-    <t>1. Hệ thống hiển thị danh sách các tin tuyển dụng có từ khóa “Front-end” xuất hiện trong tên của tin tuyển dụng và có địa chỉ  ở “Hà Nội”</t>
-  </si>
-  <si>
     <t>Lọc theo mong muốn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1. Ở trang chủ, lọc các điều kiện việc làm theo mong muốn
-4. Chọn "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF305496"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Tìm kiếm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Hình thức làm việc: "fulltime"
-2. Kinh nghiệm: "1 năm"
-3. Lương: "ít nhất 5 triệu"
-</t>
-  </si>
-  <si>
-    <t>1. Hệ thống hiển thị danh sách các tin tuyển dụng có hình thức làm việc “fulltime”, kinh nghiệm “1 năm”, lương “ít nhất 5 triệu”</t>
-  </si>
-  <si>
-    <t>Tìm kiếm theo địa chỉ, lọc theo điều kiện mong muốn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1. Ở trang chủ, nhập từ khoá mong muốn vào thanh tìm kiếm việc làm
-2. Chọn địa chỉ cần tìm
-3. Lọc các điều kiện việc làm theo mong muốn
-4. Chọn "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF305496"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Tìm kiếm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Từ khoá: "Front-end"
-2. Địa chỉ : "Hà Nội"
-3. Hình thức làm việc: "fulltime"
-4. Kinh nghiệm: "1 năm"
-5. Lương: "ít nhất 5 triệu"
-</t>
   </si>
   <si>
     <t>Function 07: Xóa tin tuyển dụng</t>
@@ -2316,7 +2202,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2327,7 +2213,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2340,7 +2226,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2351,7 +2237,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2385,7 +2271,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2396,7 +2282,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2435,7 +2321,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2446,7 +2332,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -2471,6 +2357,81 @@
     <t xml:space="preserve">
 1. Hệ thống không cho phép Ứng viên nộp đơn tuyển dụng.
 2. Hệ thống thông báo số điện thoại không hợp lệ</t>
+  </si>
+  <si>
+    <t>Đăng nhập sai mật khẩu</t>
+  </si>
+  <si>
+    <t>1. Nhập email
+2. Nhập sai mật khẩu
+3. Chọn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>1. Không cho phép người dùng đăng nhập
+2. Hệ thống thông báo sai tài khoản hoặc mật khẩu</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo từ khoá</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo từ khóa, lọc theo địa chỉ và điều kiện mong muốn</t>
+  </si>
+  <si>
+    <t>1. Ở trang chủ, nhập từ khoá mong muốn vào thanh tìm kiếm việc làm
+2. Chọn "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>1. Ở trang chủ, lọc các điều kiện việc làm theo mong muốn
+2. Chọn "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>1. Ở trang chủ, nhập từ khoá mong muốn vào thanh tìm kiếm việc làm
+2. Chọn địa chỉ cần tìm
+3. Lọc các điều kiện việc làm theo mong muốn
+4. Chọn "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>1. Từ khoá: "Web"</t>
+  </si>
+  <si>
+    <t>1. Địa chỉ: "Thành phố Hồ Chí Minh"
+2. Hình thức làm việc: "Full Time"
+3. Kinh nghiệm: "1 năm"
+4. Lương: "≥ 10 triệu"</t>
+  </si>
+  <si>
+    <t>1. Từ khoá: "Web"
+2. Địa chỉ : "Thành phố Hà Nội"
+3. Hình thức làm việc: "Full Time"
+4. Kinh nghiệm: "2 năm"
+5. Lương: "≥ 5 triệu"</t>
+  </si>
+  <si>
+    <t>1. Từ khoá: "Web"
+2. Địa chỉ : "Thành phố Hà Nội"
+3. Hình thức làm việc: "Part Time"</t>
+  </si>
+  <si>
+    <t>1. Từ khoá: "Web"
+2. Địa chỉ : "Thành phố Hồ Chí Minh"
+3. Hình thức làm việc: "Part Time"
+4. Kinh nghiệm: "1 năm"
+5. Lương: "≥ 5 triệu"</t>
+  </si>
+  <si>
+    <t>1. Hệ thống hiển thị danh sách các tin tuyển dụng có từ khóa “Web” xuất hiện trong tên của tin tuyển dụng</t>
+  </si>
+  <si>
+    <t>1. Hệ thống hiển thị danh sách các tin tuyển dụng có hình thức làm việc “Full Time”, yêu cầu về kinh nghiệm từ “1 năm” hoặc thấp hơn, lương “≥ 10 triệu”</t>
+  </si>
+  <si>
+    <t>1. Hệ thống hiển thị danh sách các tin tuyển dụng có từ khóa “Web” xuất hiện trong tên của tin tuyển dụng và có hình thức làm việc “Full Time”, yêu cầu về kinh nghiệm từ “2 năm” hoặc thấp hơn, lương “≥ 5 triệu”, địa chỉ ở “Thành phố Hà Nội”</t>
+  </si>
+  <si>
+    <t>1. Hệ thống hiển thị danh sách các tin tuyển dụng có từ khóa “Web” xuất hiện trong tên của tin tuyển dụng có hình thức làm việc “Part Time”, địa chỉ ở “Thành phố Hà Nội”</t>
+  </si>
+  <si>
+    <t>1. Hệ thống hiển thị danh sách các tin tuyển dụng có từ khóa “Web” xuất hiện trong tên của tin tuyển dụng và có hình thức làm việc “Full Time”, yêu cầu về kinh nghiệm từ “1 năm” hoặc thấp hơn, lương “≥ 5 triệu”, địa chỉ ở “Thành phố Hồ Chí Minh”</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2445,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2492,14 +2453,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -2507,7 +2468,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -2515,7 +2476,7 @@
     <font>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -2523,7 +2484,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -2547,11 +2508,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF305496"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2561,6 +2517,12 @@
       <sz val="12"/>
       <color rgb="FF4F81BD"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2607,7 +2569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2638,7 +2600,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2960,7 +2926,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:L33" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:L34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID" dataDxfId="11"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID" dataDxfId="10"/>
@@ -3272,20 +3238,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="31.69921875" customWidth="1"/>
-    <col min="3" max="3" width="69.8984375" customWidth="1"/>
-    <col min="4" max="4" width="45.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3293,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3414,26 +3380,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="30.69921875" customWidth="1"/>
-    <col min="7" max="7" width="27.69921875" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" customWidth="1"/>
-    <col min="10" max="11" width="13.69921875" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="10" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -3487,7 +3454,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="120.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3515,7 +3482,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="90.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3510,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3571,7 +3538,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="120.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3599,96 +3566,96 @@
       <c r="K6" s="8"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:12" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="120.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>49</v>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>66</v>
@@ -3699,24 +3666,24 @@
       <c r="K10" s="8"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>66</v>
@@ -3727,55 +3694,55 @@
       <c r="K11" s="8"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -3783,27 +3750,27 @@
       <c r="K13" s="8"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -3811,51 +3778,53 @@
       <c r="K14" s="8"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>90</v>
       </c>
@@ -3863,70 +3832,68 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>98</v>
@@ -3937,24 +3904,24 @@
       <c r="K19" s="8"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>53</v>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>98</v>
@@ -3965,24 +3932,24 @@
       <c r="K20" s="8"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>98</v>
@@ -3993,24 +3960,24 @@
       <c r="K21" s="8"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>98</v>
@@ -4021,27 +3988,27 @@
       <c r="K22" s="8"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="76.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -4049,27 +4016,27 @@
       <c r="K23" s="8"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4077,27 +4044,27 @@
       <c r="K24" s="8"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -4105,27 +4072,27 @@
       <c r="K25" s="8"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>125</v>
+      <c r="E26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -4133,27 +4100,27 @@
       <c r="K26" s="8"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>129</v>
+      <c r="E27" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -4161,27 +4128,27 @@
       <c r="K27" s="8"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -4189,71 +4156,71 @@
       <c r="K28" s="8"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:12" ht="120.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -4261,27 +4228,27 @@
       <c r="K31" s="8"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -4289,27 +4256,27 @@
       <c r="K32" s="8"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="136.19999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -4317,27 +4284,27 @@
       <c r="K33" s="8"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -4345,113 +4312,114 @@
       <c r="K34" s="8"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:12" ht="166.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" ht="234" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" ht="234" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="240.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>159</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:12" ht="234" x14ac:dyDescent="0.3">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" ht="240.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>159</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:12" ht="234" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="240.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>159</v>
@@ -4460,81 +4428,81 @@
         <v>168</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:12" ht="240.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>180</v>
+        <v>43</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H42" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" s="18"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="8"/>
@@ -4544,133 +4512,143 @@
         <v>22</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>184</v>
+      <c r="D43" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="18"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="1:12" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H45" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="18"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    </row>
+    <row r="46" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:12" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C48" s="6" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>199</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -4679,20 +4657,92 @@
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="7"/>
+      <c r="A49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" ht="180.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" ht="180.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
